--- a/biology/Botanique/Pinus_caribaea/Pinus_caribaea.xlsx
+++ b/biology/Botanique/Pinus_caribaea/Pinus_caribaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pin caraïbe, Pinus caribaea une espèce de conifères de la famille des Pinaceae.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Le pin des Caraïbes est un arbre qui peut mesurer jusqu'à 30 mètres de haut. Sa croissance est rapide (jusqu'à un mètre par an les premières années). Il vit entre 100 et 150 ans[2].
-Feuilles
-Les feuilles sont en forme d'aiguilles et sont groupées par 3, 4 ou 5. Elles sont vert foncé, brillantes et mesurent 12 à 20 centimètres de long pour 1 millimètre de large[2].
-Fruits
-Les fruits sont des cônes contenant chacun 150 à 200 graines[2].
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pin des Caraïbes est un arbre qui peut mesurer jusqu'à 30 mètres de haut. Sa croissance est rapide (jusqu'à un mètre par an les premières années). Il vit entre 100 et 150 ans.
 </t>
         </is>
       </c>
@@ -544,13 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pinus caribaea se trouve aux Bahamas, dans l’ouest de l’île de Cuba, au Belize, au Guatemala, au Honduras et au Nicaragua[réf. souhaitée].
-Il pousse en pleine lumière et s'adapte à des sols très variés, y compris les sols pauvres et acides, hormis les sols très argileux[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles sont en forme d'aiguilles et sont groupées par 3, 4 ou 5. Elles sont vert foncé, brillantes et mesurent 12 à 20 centimètres de long pour 1 millimètre de large.
 </t>
         </is>
       </c>
@@ -576,15 +594,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Liste des variétés</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Selon Catalogue of Life                                   (8 août 2014)[3], World Checklist of Selected Plant Families (WCSP)  (8 août 2014)[4], The Plant List            (8 août 2014)[5] et Tropicos                                           (8 août 2014)[1] :
-variété Pinus caribaea var. bahamensis (Griseb.) W.H.Barrett &amp; Golfari (1962)
-variété Pinus caribaea var. caribaea
-variété Pinus caribaea var. hondurensis (Sénécl.) W.H.Barrett &amp; Golfari (1962)</t>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont des cônes contenant chacun 150 à 200 graines.
+</t>
         </is>
       </c>
     </row>
@@ -609,12 +631,83 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pinus caribaea se trouve aux Bahamas, dans l’ouest de l’île de Cuba, au Belize, au Guatemala, au Honduras et au Nicaragua[réf. souhaitée].
+Il pousse en pleine lumière et s'adapte à des sols très variés, y compris les sols pauvres et acides, hormis les sols très argileux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pinus_caribaea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pinus_caribaea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 août 2014), World Checklist of Selected Plant Families (WCSP)  (8 août 2014), The Plant List            (8 août 2014) et Tropicos                                           (8 août 2014) :
+variété Pinus caribaea var. bahamensis (Griseb.) W.H.Barrett &amp; Golfari (1962)
+variété Pinus caribaea var. caribaea
+variété Pinus caribaea var. hondurensis (Sénécl.) W.H.Barrett &amp; Golfari (1962)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pinus_caribaea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pinus_caribaea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Place particulière en Nouvelle-Calédonie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Nouvelle-Calédonie notamment, le pin des Caraïbes a été l'essence choisie pour mener à bien de vastes opérations de reboisement. Cependant, cette espèce s'est révélée envahissante. Depuis 2002, la Province Sud s'emploie donc à réguler l'expansion du pin des Caraïbes[2]. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat, à moins d'avoir obtenu une dérogation officielle[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Nouvelle-Calédonie notamment, le pin des Caraïbes a été l'essence choisie pour mener à bien de vastes opérations de reboisement. Cependant, cette espèce s'est révélée envahissante. Depuis 2002, la Province Sud s'emploie donc à réguler l'expansion du pin des Caraïbes. Le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat, à moins d'avoir obtenu une dérogation officielle.
 </t>
         </is>
       </c>
